--- a/Mifos Automation Excels/Client/2652-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LESS-REPAY-AccCL1stFEB-REPAY2ndFEB-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2652-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LESS-REPAY-AccCL1stFEB-REPAY2ndFEB-Newcreateloan1.xlsx
@@ -912,7 +912,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,7 +957,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>616.01</v>
+        <v>250.97</v>
       </c>
       <c r="B3" s="15">
         <v>52.46</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="15">
-        <v>563.54999999999995</v>
+        <v>198.51</v>
       </c>
       <c r="F3" s="15">
         <v>198.51</v>
